--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5960" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="59" r:id="rId2"/>
-    <sheet name="BrandPageData" sheetId="57" r:id="rId3"/>
-    <sheet name="BrandItemPageData" sheetId="60" r:id="rId4"/>
-    <sheet name="BrandReviewPageData" r:id="rId10" sheetId="64"/>
-    <sheet name="BrandItemReviewPagaData" r:id="rId11" sheetId="65"/>
+    <sheet name="BrandItemPageData" sheetId="59" r:id="rId2"/>
+    <sheet name="BrandPageData" r:id="rId9" sheetId="63"/>
+    <sheet name="BrandReviewPageData" r:id="rId10" sheetId="66"/>
+    <sheet name="BrandItemReviewPagaData" r:id="rId11" sheetId="67"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="104">
   <si>
     <t>URL</t>
   </si>
@@ -60,88 +59,25 @@
     <t>HEADER 1</t>
   </si>
   <si>
+    <t>REVIEW COUNT</t>
+  </si>
+  <si>
+    <t>REVIEW PAGE LINK</t>
+  </si>
+  <si>
     <t>https://www.famous-smoke.com/brand/no.+famous+cigars</t>
   </si>
   <si>
-    <t># Famous Cigars Online for Sale | Famous Smoke</t>
-  </si>
-  <si>
-    <t>#Famous cigars are a unique aromatic blend created for cigar smokers who enjoy flavor-infused cigars. Using a secret Nicaraguan tobacco blend, the smoke is...</t>
-  </si>
-  <si>
-    <t># FAMOUS CIGARS ONLINE FOR SALE</t>
-  </si>
-  <si>
-    <t>#Famous cigars are a unique aromatic blend created for cigar smokers who enjoy flavor-infused cigars. Using a secret Nicaraguan tobacco blend, the smoke is ultra-mellow and hits you with a fragrant mélange of vanilla, caramel, and sweet coffee &amp; cream. Made in 2 sizes - Toro and Petite Corona - presented in a refillable vacuum-sealed humidor jar for guaranteed freshness, you'll be as surprised by the low price as you will by their awesome bouquet. Get your #Famous cigar shape now and #goforit!</t>
-  </si>
-  <si>
-    <t>»Cigar Brand List</t>
-  </si>
-  <si>
-    <t>https://www.famous-smoke.com/cigar-brand-list</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>https://www.famous-smoke.com/brand/1994+by+la+flor+dominicana+cigars</t>
   </si>
   <si>
-    <t>1994 by La Flor Dominicana Cigars Online for Sale | Famous Smoke</t>
-  </si>
-  <si>
-    <t>1994 by La Flor Dominicana holds a very special meaning to the company that brought you some of the highest rated cigars year after year. The 1994...</t>
-  </si>
-  <si>
-    <t>1994 BY LA FLOR DOMINICANA CIGARS ONLINE FOR SALE</t>
-  </si>
-  <si>
-    <t>1994 by La Flor Dominicana holds a very special meaning to the company that brought you some of the highest rated cigars year after year. The 1994 commemorates Litto and Ines Gomez's 20th year with the LFD cigar brand they created. Dominican longfillers and binders are dressed in an oily Mexican San Andres natural wrapper, with 4 sizes to choose from. If you're a fan of LFD, you should only expect yet another cigar with stellar flavor and a full bodied strength profile. Get yours now!</t>
-  </si>
-  <si>
-    <t>»All La Flor Dominicana Brands</t>
-  </si>
-  <si>
-    <t>https://www.famous-smoke.com/brandgroup/la+flor+dominicana+cigars</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>https://www.famous-smoke.com/brandgroup/262+cigars</t>
-  </si>
-  <si>
-    <t>262 Cigars Online for Sale | Famous Smoke</t>
-  </si>
-  <si>
-    <t>262 cigars for sale at Famous Smoke Shop's online cigar store. These boutique cigars present a revolution in premium cigar quality, taste, and complexity.</t>
-  </si>
-  <si>
-    <t>262 CIGARS ONLINE FOR SALE</t>
-  </si>
-  <si>
-    <t>The brainchild of Clint Aaron and Mike Justice, 262 Cigars is a collective of premium cigar brands that have been riding the new wave of boutique cigars into the marketplace since 2010. The name stands for February 1962, the month and year that President John F. Kennedy signed the Cuban Trade Embargo. It also stands for something more than just really good cigars; it stands for a new paradigm and an ideology to which Aaron and Justice have assigned the slogan, "Smoke the Revolution."
-No revolution would be complete without a manifesto, and the 262 Manifesto is a call to action for cigar smokers to band together and tell local, state, and federal government officials that they will not stand for excessive tobacco taxation and unconstitutional smoking bans. "I believe in the constitution and fully trust what the founders setup for us," says Mike Justice. "Our Ideologies are the foundations of how we live our lives, the decisions we make, and the people we associate with."
-Made in Honduras Paradigm cigars start with Nicaraguan Seco and Ligero tobaccos from Estelí and Jalapa, a Colombian Cuban-seed Cubito leaf, and a Honduran binder wrapped in a luscious Brazilian Mata Fina leaf that pulls everything together to deliver a creamy, complex, and medium-full smoke that exhibits notes of citrus, coffee, pepper, cedar, cocoa and sweet tobacco.
-Our Ideologies are what make us who we are, and 262 Ideology cigars represent the passion to create great cigars, the fortitude to transcend the opposition, and the resolve to smoke free. Using a mild 3-nation core blend rolled in flawless Nicaraguan Habano Rosado wrappers, the 262 Ideology will ring home with your palate and remind you what is was about cigars that made you fall in love with them. Their effortless draw offers a toasty, buttery, and creamy-smooth smoke that pledges to put your troubles on "hold" for a most relaxing experience.
-During the events leading up to our nation's revolution, Paul Revere was among those who answered the call for freedom with selfless courage, and made his mark on history. That passion is reflected in the 262 Revere cigars selection. If you love the bold taste of Nicaraguan puros, the Revere selection embraces a blend of long-fillers from Estelí, Condega, and Jalapa rolled in a glossy and naturally sweet-tasting Jalapa wrapper. The smoke is full-bodied, offering a multitude of floral and herbal notes with citrus peel, cocoa, and spice in the mix, making the 262 Revere a marvelous choice for lovers of the best Nicaraguan cigars.
-While all of the above brands have a cigar revolution theme, 262 Allegiance cigars takes a stronger tone. State by state, town by town, and at the Federal level, too, there is a growing opposition to our cigar culture, and it's time to take a side. So, in an effort to thwart those efforts, Clint Aaron has created a medium-bodied cigar that will appeal to cigar smokers at every level. Made in Estelí, Nicaragua, Allegiance marries Nicaraguan and Honduran long-fillers to an oily Brazilian Mata Fina wrapper for a satisfying smoke with an exotic mix of spice, citrus, and earthy flavors. If you want a cigar made with outstanding quality and taste, turn your allegiance to this selection.
-"</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>IDENTIFIED123</t>
-  </si>
-  <si>
-    <t>REVIEW COUNT</t>
+    <t>https://www.famous-smoke.com/brand/262+ideology+cigars</t>
   </si>
   <si>
     <t>https://www.famous-smoke.com/no.+famous+petite+corona+cigars/item+49360</t>
@@ -167,34 +103,29 @@
 4 x 38
 Country:
 Nicaragua
-Wrapper Color:
+Color:
 Natural
 Wrapper Origin:
 Honduran
 Wrapper Leaf:
-Connecticut Shade
-Flavor:
-Infused</t>
+Connecticut Shade</t>
   </si>
   <si>
     <t>»# Famous Cigars Online for Sale</t>
   </si>
   <si>
-    <t>Flavor:
-Infused,Size:
+    <t>Size:
 4 x 38,Shape:
 Corona,Wrapper Origin:
-Honduran,Wrapper Color:
-Natural,Strength:
+Honduran,Strength:
 Mild,Country:
-Nicaragua,Wrapper Leaf:
+Nicaragua,Color:
+Natural,Wrapper Leaf:
 Connecticut Shade</t>
   </si>
   <si>
-    <t>$73.99$82.08</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>ON SALE - 21% OFF
+$64.95 $82.08</t>
   </si>
   <si>
     <t>https://www.famous-smoke.com/no.+famous+toro+cigars/item+49358</t>
@@ -220,31 +151,25 @@
 6 x 50
 Country:
 Nicaragua
-Wrapper Color:
+Color:
 Natural
 Wrapper Origin:
 Honduran
 Wrapper Leaf:
-Connecticut Shade
-Flavor:
-Infused</t>
-  </si>
-  <si>
-    <t>Flavor:
-Infused,Wrapper Origin:
-Honduran,Wrapper Color:
-Natural,Shape:
+Connecticut Shade</t>
+  </si>
+  <si>
+    <t>Wrapper Origin:
+Honduran,Shape:
 Toro,Size:
 6 x 50,Strength:
 Mild,Country:
-Nicaragua,Wrapper Leaf:
+Nicaragua,Color:
+Natural,Wrapper Leaf:
 Connecticut Shade</t>
   </si>
   <si>
-    <t>$70.99$78.66</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>$70.99</t>
   </si>
   <si>
     <t>https://www.famous-smoke.com/1994+by+la+flor+dominicana+aldaba+cigars/item+45891</t>
@@ -270,7 +195,7 @@
 6 x 58
 Country:
 Dominican Republic
-Wrapper Color:
+Color:
 Maduro
 Wrapper Origin:
 Mexican
@@ -286,20 +211,210 @@
 San Andres,Wrapper Origin:
 Mexican,Country:
 Dominican Republic,Shape:
-Toro,Strength:
-Full,Wrapper Color:
-Maduro</t>
-  </si>
-  <si>
-    <t>$152.99$170.00</t>
-  </si>
-  <si>
-    <t>90</t>
+Toro,Color:
+Maduro,Strength:
+Full</t>
+  </si>
+  <si>
+    <t>$152.99</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/262+ideology+bp+toro+10+pack+cigars/item+53641</t>
+  </si>
+  <si>
+    <t>262 Ideology BP Toro Cigars - Rosado | Famous Smoke</t>
+  </si>
+  <si>
+    <t>Take a look at our 262 Ideology BP Toro 10 Pack Rosado Cigars as well as other cigars here at Famous Smoke Shop.</t>
+  </si>
+  <si>
+    <t>262 IDEOLOGY BP TORO 10 PACK</t>
+  </si>
+  <si>
+    <t>262 IDEOLOGY BP TORO 10 PACK
+262 Ideology Cigars represent the bold new wave of the cigar industry. Cigars are getting bolder, more flavorful, and a heck of a lot more complex and 262 is coming to the front of the pack. The Ideology is Mild yet complex smoke with Nicaraguan, Mexican, and Dominican fillers, a Nicaraguan binder, and a Nicaraguan Habano Rosado wrapper that ads a buttery creaminess to an outstanding smoke. Step into the future of cigars and pick some up today!
+FULL SPECIFICATIONS
+Strength:
+Mild
+Shape:
+Toro
+Size:
+6 x 54
+Country:
+Honduras
+Color:
+Rosado
+Wrapper Origin:
+Nicaraguan
+Wrapper Leaf:
+Habano</t>
+  </si>
+  <si>
+    <t>»262 Ideology Cigars Online for Sale</t>
+  </si>
+  <si>
+    <t>Country:
+Honduras,Size:
+6 x 54,Wrapper Leaf:
+Habano,Shape:
+Toro,Color:
+Rosado,Strength:
+Mild,Wrapper Origin:
+Nicaraguan</t>
+  </si>
+  <si>
+    <t>$78.99</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/262+ideology+robusto+cigars/item+41775</t>
+  </si>
+  <si>
+    <t>262 Ideology Robusto Cigars - Rosado | Famous Smoke</t>
+  </si>
+  <si>
+    <t>Take a look at our 262 Ideology Robusto Rosado Cigars as well as other cigars here at Famous Smoke Shop.</t>
+  </si>
+  <si>
+    <t>262 IDEOLOGY ROBUSTO 5 PACK
+262 Ideology Cigars represent the bold new wave of the cigar industry. Cigars are getting bolder, more flavorful, and a heck of a lot more complex and 262 is coming to the front of the pack. The Ideology is Mild yet complex smoke with Nicaraguan, Mexican, and Dominican fillers, a Nicaraguan binder, and a Nicaraguan Habano Rosado wrapper that ads a buttery creaminess to an outstanding smoke. Step into the future of cigars and pick some up today!
+FULL SPECIFICATIONS
+Strength:
+Mild
+Shape:
+Robusto
+Size:
+5 x 50
+Country:
+Honduras
+Color:
+Rosado
+Wrapper Origin:
+Nicaraguan
+Wrapper Leaf:
+Habano</t>
+  </si>
+  <si>
+    <t>Shape:
+Robusto,Country:
+Honduras,Wrapper Leaf:
+Habano,Color:
+Rosado,Strength:
+Mild,Wrapper Origin:
+Nicaraguan,Size:
+5 x 50</t>
+  </si>
+  <si>
+    <t># Famous Cigars Online for Sale | Famous Smoke</t>
+  </si>
+  <si>
+    <t>#Famous cigars are a unique aromatic blend created for cigar smokers who enjoy flavor-infused cigars. Using a secret Nicaraguan tobacco blend, the smoke is...</t>
+  </si>
+  <si>
+    <t># FAMOUS CIGARS ONLINE FOR SALE</t>
+  </si>
+  <si>
+    <t>#Famous cigars are a unique aromatic blend created for cigar smokers who enjoy flavor-infused cigars. Using a secret Nicaraguan tobacco blend, the smoke is ultra-mellow and hits you with a fragrant mélange of vanilla, caramel, and sweet coffee &amp; cream. Made in 2 sizes - Toro and Petite Corona - presented in a refillable vacuum-sealed humidor jar for guaranteed freshness, you'll be as surprised by the low price as you will by their awesome bouquet. Get your #Famous cigar shape now and #goforit!</t>
+  </si>
+  <si>
+    <t>»Cigar Brand List</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/cigar-brand-list</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>https://www.famous-smoke.com/no.+famous+cigar+reviews/HFA</t>
   </si>
   <si>
+    <t>1994 by La Flor Dominicana Cigars Online for Sale | Famous Smoke</t>
+  </si>
+  <si>
+    <t>1994 by La Flor Dominicana holds a very special meaning to the company that brought you some of the highest rated cigars year after year. The 1994...</t>
+  </si>
+  <si>
+    <t>1994 BY LA FLOR DOMINICANA CIGARS ONLINE FOR SALE</t>
+  </si>
+  <si>
+    <t>1994 by La Flor Dominicana holds a very special meaning to the company that brought you some of the highest rated cigars year after year. The 1994 commemorates Litto and Ines Gomez's 20th year with the LFD cigar brand they created. Dominican longfillers and binders are dressed in an oily Mexican San Andres natural wrapper, with 4 sizes to choose from. If you're a fan of LFD, you should only expect yet another cigar with stellar flavor and a full bodied strength profile. Get yours now!</t>
+  </si>
+  <si>
+    <t>»All La Flor Dominicana Brands</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/brandgroup/la+flor+dominicana+cigars</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/1994+by+la+flor+dominicana+cigar+reviews/L94</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/brandgroup/262+cigars</t>
+  </si>
+  <si>
+    <t>262 Cigars Online for Sale | Famous Smoke</t>
+  </si>
+  <si>
+    <t>262 cigars for sale at Famous Smoke Shop's online cigar store. These boutique cigars present a revolution in premium cigar quality, taste, and complexity.</t>
+  </si>
+  <si>
+    <t>262 CIGARS ONLINE FOR SALE</t>
+  </si>
+  <si>
+    <t>The brainchild of Clint Aaron and Mike Justice, 262 Cigars is a collective of premium cigar brands that have been riding the new wave of boutique cigars into the marketplace since 2010. The name stands for February 1962, the month and year that President John F. Kennedy signed the Cuban Trade Embargo. It also stands for something more than just really good cigars; it stands for a new paradigm and an ideology to which Aaron and Justice have assigned the slogan, "Smoke the Revolution."
+No revolution would be complete without a manifesto, and the 262 Manifesto is a call to action for cigar smokers to band together and tell local, state, and federal government officials that they will not stand for excessive tobacco taxation and unconstitutional smoking bans. "I believe in the constitution and fully trust what the founders setup for us," says Mike Justice. "Our Ideologies are the foundations of how we live our lives, the decisions we make, and the people we associate with."
+Made in Honduras Paradigm cigars start with Nicaraguan Seco and Ligero tobaccos from Estelí and Jalapa, a Colombian Cuban-seed Cubito leaf, and a Honduran binder wrapped in a luscious Brazilian Mata Fina leaf that pulls everything together to deliver a creamy, complex, and medium-full smoke that exhibits notes of citrus, coffee, pepper, cedar, cocoa and sweet tobacco.
+Our Ideologies are what make us who we are, and 262 Ideology cigars represent the passion to create great cigars, the fortitude to transcend the opposition, and the resolve to smoke free. Using a mild 3-nation core blend rolled in flawless Nicaraguan Habano Rosado wrappers, the 262 Ideology will ring home with your palate and remind you what is was about cigars that made you fall in love with them. Their effortless draw offers a toasty, buttery, and creamy-smooth smoke that pledges to put your troubles on "hold" for a most relaxing experience.
+During the events leading up to our nation's revolution, Paul Revere was among those who answered the call for freedom with selfless courage, and made his mark on history. That passion is reflected in the 262 Revere cigars selection. If you love the bold taste of Nicaraguan puros, the Revere selection embraces a blend of long-fillers from Estelí, Condega, and Jalapa rolled in a glossy and naturally sweet-tasting Jalapa wrapper. The smoke is full-bodied, offering a multitude of floral and herbal notes with citrus peel, cocoa, and spice in the mix, making the 262 Revere a marvelous choice for lovers of the best Nicaraguan cigars.
+While all of the above brands have a cigar revolution theme, 262 Allegiance cigars takes a stronger tone. State by state, town by town, and at the Federal level, too, there is a growing opposition to our cigar culture, and it's time to take a side. So, in an effort to thwart those efforts, Clint Aaron has created a medium-bodied cigar that will appeal to cigar smokers at every level. Made in Estelí, Nicaragua, Allegiance marries Nicaraguan and Honduran long-fillers to an oily Brazilian Mata Fina wrapper for a satisfying smoke with an exotic mix of spice, citrus, and earthy flavors. If you want a cigar made with outstanding quality and taste, turn your allegiance to this selection.
+"</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/brand/262+allegiance+cigars</t>
+  </si>
+  <si>
+    <t>262 Allegiance Cigars Online for Sale | Famous Smoke</t>
+  </si>
+  <si>
+    <t>I pledge allegiance to the cigar called 262 Allegiance. Originally planned as a seasonal blend, Allegiance was met with such an enthusiastic response the...</t>
+  </si>
+  <si>
+    <t>262 ALLEGIANCE CIGARS ONLINE FOR SALE</t>
+  </si>
+  <si>
+    <t>I pledge allegiance to the cigar called 262 Allegiance. Originally planned as a seasonal blend, Allegiance was met with such an enthusiastic response the company decided to make it a full production cigar handcrafted at Tabacalera Carreras factory in Esteli, Nicaragua with a Brazilian Mata Fina wrapper, Nicaraguan binder and a Honduran-Nicaraguan filler blend. Expect an effortless, enjoyable, and very affordable smoke that's mild to medium in body, yet very rich in flavor. Order yours now!</t>
+  </si>
+  <si>
+    <t>»All 262 Brands</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>262 Ideology Cigars Online for Sale | Famous Smoke</t>
+  </si>
+  <si>
+    <t>262 Ideology Cigars represent the bold new wave of the cigar industry. Cigars are getting bolder, more flavorful, and a heck of a lot more complex and 262...</t>
+  </si>
+  <si>
+    <t>262 IDEOLOGY CIGARS ONLINE FOR SALE</t>
+  </si>
+  <si>
+    <t>262 Ideology Cigars represent the bold new wave of the cigar industry. Cigars are getting bolder, more flavorful, and a heck of a lot more complex and 262 is coming to the front of the pack. The Ideology is Mild yet complex smoke with Nicaraguan, Mexican, and Dominican fillers, a Nicaraguan binder, and a Nicaraguan Habano Rosado wrapper that ads a buttery creaminess to an outstanding smoke. Step into the future of cigars and pick some up today!</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/262+ideology+cigar+reviews/2ID</t>
+  </si>
+  <si>
     <t># Famous Reviews | Famous Smoke</t>
   </si>
   <si>
@@ -309,9 +424,6 @@
     <t># FAMOUS REVIEWS</t>
   </si>
   <si>
-    <t>https://www.famous-smoke.com/1994+by+la+flor+dominicana+cigar+reviews/L94</t>
-  </si>
-  <si>
     <t>1994 by La Flor Dominicana Reviews | Famous Smoke</t>
   </si>
   <si>
@@ -321,7 +433,25 @@
     <t>1994 BY LA FLOR DOMINICANA REVIEWS</t>
   </si>
   <si>
-    <t>60</t>
+    <t>262 Ideology Reviews | Famous Smoke</t>
+  </si>
+  <si>
+    <t>Searching for 262 Ideology Reviews? Check out what our customers have to say here, then save big now at Famous Smoke Shop!</t>
+  </si>
+  <si>
+    <t>262 IDEOLOGY REVIEWS</t>
+  </si>
+  <si>
+    <t>https://www.famous-smoke.com/262+ideology+robusto+5+pack+cigars/item+42687</t>
+  </si>
+  <si>
+    <t>Take a look at our 262 Ideology Robusto 5 Pack Rosado Cigars as well as other cigars here at Famous Smoke Shop.</t>
+  </si>
+  <si>
+    <t>262 IDEOLOGY ROBUSTO 5 PACK</t>
+  </si>
+  <si>
+    <t>$32.99</t>
   </si>
 </sst>
 </file>
@@ -329,7 +459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +467,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,57 +488,17 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill>
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,14 +535,21 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -455,77 +559,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,173 +1015,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="70.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.54296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="143.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="52.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="66.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="29">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="145">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1026,40 +1036,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1068,7 +1078,243 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="70.01171875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.01171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="143.35546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="52.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="66.48046875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.87109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="75.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1086,72 +1332,95 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>13</v>
+      <c r="A2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>22</v>
+      <c r="B3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1176,161 +1445,237 @@
     <col min="7" max="7" width="46.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="70.01171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="25.99609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.43359375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="18.03125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="13.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="10.87109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="25" t="s">
+      <c r="A2" s="48" t="s">
         <v>20</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>20</v>
+      <c r="A3" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>20</v>
+      <c r="A4" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
